--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S14/S14_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S14/S14_storagemod.xlsx
@@ -14,111 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.024967011875677257</t>
-  </si>
-  <si>
-    <t>0.040394435301666656</t>
-  </si>
-  <si>
-    <t>0.06502636176395483</t>
-  </si>
-  <si>
-    <t>0.09994216657680842</t>
-  </si>
-  <si>
-    <t>0.24726150558042456</t>
-  </si>
-  <si>
-    <t>0.6021318117751803</t>
-  </si>
-  <si>
-    <t>0.9356856240654838</t>
-  </si>
-  <si>
-    <t>1.52699170294378</t>
-  </si>
-  <si>
-    <t>3.6283758053650317</t>
-  </si>
-  <si>
-    <t>5.638129819687951</t>
-  </si>
-  <si>
-    <t>9.205599168416366</t>
-  </si>
-  <si>
-    <t>14.075566990656933</t>
-  </si>
-  <si>
-    <t>22.231847590372233</t>
-  </si>
-  <si>
-    <t>35.12384331199765</t>
-  </si>
-  <si>
-    <t>54.593590316342976</t>
-  </si>
-  <si>
-    <t>204.86534137848741</t>
-  </si>
-  <si>
-    <t>511.13830551240505</t>
-  </si>
-  <si>
-    <t>92140.42697795169</t>
-  </si>
-  <si>
-    <t>86404.75418633784</t>
-  </si>
-  <si>
-    <t>90011.95426117741</t>
-  </si>
-  <si>
-    <t>97115.32928808135</t>
-  </si>
-  <si>
-    <t>116399.33966146864</t>
-  </si>
-  <si>
-    <t>123114.89176379224</t>
-  </si>
-  <si>
-    <t>130827.9886516493</t>
-  </si>
-  <si>
-    <t>154081.63275308735</t>
-  </si>
-  <si>
-    <t>161454.78889263808</t>
-  </si>
-  <si>
-    <t>194648.54781617146</t>
-  </si>
-  <si>
-    <t>213723.01218146598</t>
-  </si>
-  <si>
-    <t>223950.14380820782</t>
-  </si>
-  <si>
-    <t>251710.5935298887</t>
-  </si>
-  <si>
-    <t>282912.17776323156</t>
-  </si>
-  <si>
-    <t>337114.05833636754</t>
-  </si>
-  <si>
-    <t>381568.0659938143</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -491,139 +392,139 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+      <c r="A2">
+        <v>0.02496701187567726</v>
+      </c>
+      <c r="B2">
+        <v>92140.42697795169</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="A3">
+        <v>0.04039443530166666</v>
+      </c>
+      <c r="B3">
+        <v>86404.75418633784</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="A4">
+        <v>0.06502636176395483</v>
+      </c>
+      <c r="B4">
+        <v>90011.95426117741</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+      <c r="A5">
+        <v>0.09994216657680842</v>
+      </c>
+      <c r="B5">
+        <v>92140.42697795169</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
+      <c r="A6">
+        <v>0.2472615055804246</v>
+      </c>
+      <c r="B6">
+        <v>97115.32928808135</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="A7">
+        <v>0.6021318117751803</v>
+      </c>
+      <c r="B7">
+        <v>116399.3396614686</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
+      <c r="A8">
+        <v>0.9356856240654838</v>
+      </c>
+      <c r="B8">
+        <v>123114.8917637922</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
+      <c r="A9">
+        <v>1.52699170294378</v>
+      </c>
+      <c r="B9">
+        <v>130827.9886516493</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
+      <c r="A10">
+        <v>3.628375805365032</v>
+      </c>
+      <c r="B10">
+        <v>154081.6327530874</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
+      <c r="A11">
+        <v>5.638129819687951</v>
+      </c>
+      <c r="B11">
+        <v>161454.7888926381</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
+      <c r="A12">
+        <v>9.205599168416366</v>
+      </c>
+      <c r="B12">
+        <v>194648.5478161715</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
+      <c r="A13">
+        <v>14.07556699065693</v>
+      </c>
+      <c r="B13">
+        <v>213723.012181466</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
+      <c r="A14">
+        <v>22.23184759037223</v>
+      </c>
+      <c r="B14">
+        <v>223950.1438082078</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
+      <c r="A15">
+        <v>35.12384331199765</v>
+      </c>
+      <c r="B15">
+        <v>251710.5935298887</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
+      <c r="A16">
+        <v>54.59359031634298</v>
+      </c>
+      <c r="B16">
+        <v>282912.1777632316</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
+      <c r="A17">
+        <v>204.8653413784874</v>
+      </c>
+      <c r="B17">
+        <v>337114.0583363675</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
+      <c r="A18">
+        <v>511.1383055124051</v>
+      </c>
+      <c r="B18">
+        <v>381568.0659938143</v>
       </c>
     </row>
   </sheetData>
